--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_17_6.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_17_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2022811.317794225</v>
+        <v>-2025379.518073592</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10120672.17103262</v>
+        <v>10120672.17103263</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -1370,25 +1370,25 @@
         <v>355.8127254646764</v>
       </c>
       <c r="C11" t="n">
-        <v>338.3517755722034</v>
+        <v>338.3517755722033</v>
       </c>
       <c r="D11" t="n">
-        <v>327.7619254218788</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>355.0092538734576</v>
       </c>
       <c r="F11" t="n">
-        <v>379.9549295429073</v>
+        <v>379.9549295429072</v>
       </c>
       <c r="G11" t="n">
-        <v>384.0006094546493</v>
+        <v>384.0006094546492</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>267.6866481885162</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>14.65581357412177</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.26664558937168</v>
+        <v>82.26664558937165</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>176.996853940816</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1430,10 +1430,10 @@
         <v>300.8311422713307</v>
       </c>
       <c r="W11" t="n">
-        <v>0.3869539978277766</v>
+        <v>211.6195481959178</v>
       </c>
       <c r="X11" t="n">
-        <v>342.8099844796649</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>359.3168224572494</v>
@@ -1528,25 +1528,25 @@
         <v>152.9108639831331</v>
       </c>
       <c r="C13" t="n">
-        <v>140.3257048998237</v>
+        <v>140.3257048998236</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>121.6943568194082</v>
       </c>
       <c r="E13" t="n">
         <v>119.512846447765</v>
       </c>
       <c r="F13" t="n">
-        <v>19.02898939518474</v>
+        <v>118.499931824127</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>139.104692060224</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>31.14638095902471</v>
       </c>
       <c r="I13" t="n">
-        <v>69.43130421103393</v>
+        <v>69.4313042110339</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.01103647124317</v>
+        <v>62.01103647124314</v>
       </c>
       <c r="S13" t="n">
         <v>162.8479091326377</v>
       </c>
       <c r="T13" t="n">
-        <v>192.627833077365</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>259.2907220068087</v>
@@ -1591,7 +1591,7 @@
         <v>259.6018821377868</v>
       </c>
       <c r="X13" t="n">
-        <v>198.788539190233</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>191.6635371532906</v>
@@ -1607,7 +1607,7 @@
         <v>355.8127254646764</v>
       </c>
       <c r="C14" t="n">
-        <v>338.3517755722034</v>
+        <v>338.3517755722033</v>
       </c>
       <c r="D14" t="n">
         <v>327.7619254218788</v>
@@ -1616,16 +1616,16 @@
         <v>355.0092538734576</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>379.9549295429073</v>
       </c>
       <c r="G14" t="n">
-        <v>177.8515806953254</v>
+        <v>384.0006094546493</v>
       </c>
       <c r="H14" t="n">
         <v>267.6866481885163</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>14.65581357412179</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.26664558937166</v>
       </c>
       <c r="T14" t="n">
         <v>176.996853940816</v>
       </c>
       <c r="U14" t="n">
-        <v>224.0740557600978</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>300.8311422713307</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>342.8099844796649</v>
+        <v>184.6887650453686</v>
       </c>
       <c r="Y14" t="n">
         <v>359.3168224572494</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1765,25 +1765,25 @@
         <v>152.9108639831331</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>140.3257048998236</v>
       </c>
       <c r="D16" t="n">
-        <v>121.6943568194082</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>38.67325209923808</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>118.4999318241271</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>139.104692060224</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>68.86844799375926</v>
       </c>
       <c r="I16" t="n">
-        <v>69.43130421103396</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>62.01103647124319</v>
+        <v>62.01103647124316</v>
       </c>
       <c r="S16" t="n">
         <v>162.8479091326377</v>
@@ -1841,16 +1841,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>308.8375888460839</v>
+        <v>308.8375888460838</v>
       </c>
       <c r="C17" t="n">
         <v>291.3766389536108</v>
       </c>
       <c r="D17" t="n">
-        <v>77.76996237559385</v>
+        <v>280.7867888032862</v>
       </c>
       <c r="E17" t="n">
-        <v>308.0341172548651</v>
+        <v>308.034117254865</v>
       </c>
       <c r="F17" t="n">
         <v>332.9797929243147</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>35.29150897077913</v>
+        <v>35.29150897077908</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>50.8391792250462</v>
       </c>
       <c r="U17" t="n">
-        <v>177.0989191415053</v>
+        <v>177.0989191415052</v>
       </c>
       <c r="V17" t="n">
-        <v>253.8560056527382</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>275.3447159000163</v>
+        <v>275.3447159000162</v>
       </c>
       <c r="X17" t="n">
         <v>295.8348478610723</v>
       </c>
       <c r="Y17" t="n">
-        <v>312.3416858386569</v>
+        <v>312.3416858386568</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>105.9357273645406</v>
+        <v>105.9357273645405</v>
       </c>
       <c r="C19" t="n">
-        <v>155.765776263037</v>
+        <v>93.35056828123105</v>
       </c>
       <c r="D19" t="n">
-        <v>74.71922020081564</v>
+        <v>74.71922020081557</v>
       </c>
       <c r="E19" t="n">
-        <v>72.53770982917246</v>
+        <v>72.53770982917239</v>
       </c>
       <c r="F19" t="n">
-        <v>71.52479520553453</v>
+        <v>71.52479520553446</v>
       </c>
       <c r="G19" t="n">
-        <v>92.12955544163151</v>
+        <v>92.12955544163144</v>
       </c>
       <c r="H19" t="n">
-        <v>70.85876209692407</v>
+        <v>70.85876209692401</v>
       </c>
       <c r="I19" t="n">
-        <v>22.4561675924414</v>
+        <v>22.45616759244133</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>15.03589985265063</v>
+        <v>15.03589985265059</v>
       </c>
       <c r="S19" t="n">
-        <v>115.8727725140452</v>
+        <v>115.8727725140451</v>
       </c>
       <c r="T19" t="n">
-        <v>145.6526964587725</v>
+        <v>145.6526964587724</v>
       </c>
       <c r="U19" t="n">
-        <v>212.3155853882161</v>
+        <v>274.7307933700222</v>
       </c>
       <c r="V19" t="n">
-        <v>178.2413905064313</v>
+        <v>178.2413905064312</v>
       </c>
       <c r="W19" t="n">
-        <v>212.6267455191943</v>
+        <v>212.6267455191942</v>
       </c>
       <c r="X19" t="n">
         <v>151.8134025716404</v>
       </c>
       <c r="Y19" t="n">
-        <v>144.6884005346981</v>
+        <v>144.688400534698</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>308.8375888460839</v>
+        <v>308.8375888460838</v>
       </c>
       <c r="C20" t="n">
         <v>291.3766389536108</v>
@@ -2087,13 +2087,13 @@
         <v>280.7867888032862</v>
       </c>
       <c r="E20" t="n">
-        <v>308.0341172548651</v>
+        <v>308.034117254865</v>
       </c>
       <c r="F20" t="n">
         <v>332.9797929243147</v>
       </c>
       <c r="G20" t="n">
-        <v>3.9869290861413</v>
+        <v>337.0254728360567</v>
       </c>
       <c r="H20" t="n">
         <v>220.7115115699237</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.29150897077913</v>
+        <v>35.29150897077909</v>
       </c>
       <c r="T20" t="n">
-        <v>130.0217173222235</v>
+        <v>130.0217173222234</v>
       </c>
       <c r="U20" t="n">
-        <v>177.0989191415053</v>
+        <v>97.91638104432793</v>
       </c>
       <c r="V20" t="n">
-        <v>253.8560056527382</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>275.3447159000163</v>
+        <v>275.3447159000162</v>
       </c>
       <c r="X20" t="n">
         <v>295.8348478610723</v>
       </c>
       <c r="Y20" t="n">
-        <v>312.3416858386569</v>
+        <v>312.3416858386568</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2178,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>105.9357273645406</v>
+        <v>105.9357273645405</v>
       </c>
       <c r="C22" t="n">
-        <v>93.35056828123112</v>
+        <v>93.35056828123105</v>
       </c>
       <c r="D22" t="n">
-        <v>74.71922020081564</v>
+        <v>74.71922020081557</v>
       </c>
       <c r="E22" t="n">
-        <v>72.53770982917246</v>
+        <v>72.53770982917239</v>
       </c>
       <c r="F22" t="n">
-        <v>71.52479520553453</v>
+        <v>71.52479520553446</v>
       </c>
       <c r="G22" t="n">
-        <v>154.5447634234373</v>
+        <v>92.12955544163144</v>
       </c>
       <c r="H22" t="n">
-        <v>70.85876209692407</v>
+        <v>70.85876209692401</v>
       </c>
       <c r="I22" t="n">
-        <v>22.4561675924414</v>
+        <v>22.45616759244133</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>15.03589985265063</v>
+        <v>15.03589985265059</v>
       </c>
       <c r="S22" t="n">
-        <v>115.8727725140452</v>
+        <v>115.8727725140451</v>
       </c>
       <c r="T22" t="n">
-        <v>145.6526964587725</v>
+        <v>208.0679044405786</v>
       </c>
       <c r="U22" t="n">
         <v>212.3155853882161</v>
       </c>
       <c r="V22" t="n">
-        <v>178.2413905064313</v>
+        <v>178.2413905064312</v>
       </c>
       <c r="W22" t="n">
-        <v>212.6267455191943</v>
+        <v>212.6267455191942</v>
       </c>
       <c r="X22" t="n">
         <v>151.8134025716404</v>
       </c>
       <c r="Y22" t="n">
-        <v>144.6884005346981</v>
+        <v>144.688400534698</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>308.8375888460839</v>
+        <v>308.8375888460838</v>
       </c>
       <c r="C23" t="n">
         <v>291.3766389536108</v>
@@ -2324,7 +2324,7 @@
         <v>280.7867888032862</v>
       </c>
       <c r="E23" t="n">
-        <v>308.0341172548651</v>
+        <v>308.034117254865</v>
       </c>
       <c r="F23" t="n">
         <v>332.9797929243147</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>35.29150897077913</v>
+        <v>35.29150897077905</v>
       </c>
       <c r="T23" t="n">
-        <v>130.0217173222235</v>
+        <v>130.0217173222234</v>
       </c>
       <c r="U23" t="n">
-        <v>177.0989191415053</v>
+        <v>177.0989191415052</v>
       </c>
       <c r="V23" t="n">
-        <v>253.8560056527382</v>
+        <v>253.8560056527381</v>
       </c>
       <c r="W23" t="n">
-        <v>275.3447159000163</v>
+        <v>275.3447159000162</v>
       </c>
       <c r="X23" t="n">
         <v>295.8348478610723</v>
       </c>
       <c r="Y23" t="n">
-        <v>312.3416858386569</v>
+        <v>312.3416858386568</v>
       </c>
     </row>
     <row r="24">
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734093895</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>105.9357273645406</v>
+        <v>105.9357273645405</v>
       </c>
       <c r="C25" t="n">
-        <v>93.35056828123112</v>
+        <v>93.35056828123105</v>
       </c>
       <c r="D25" t="n">
-        <v>74.71922020081564</v>
+        <v>74.71922020081557</v>
       </c>
       <c r="E25" t="n">
-        <v>72.53770982917246</v>
+        <v>72.53770982917239</v>
       </c>
       <c r="F25" t="n">
-        <v>71.52479520553453</v>
+        <v>71.52479520553446</v>
       </c>
       <c r="G25" t="n">
-        <v>92.12955544163151</v>
+        <v>92.12955544163144</v>
       </c>
       <c r="H25" t="n">
-        <v>70.85876209692407</v>
+        <v>133.2739700787307</v>
       </c>
       <c r="I25" t="n">
-        <v>22.4561675924414</v>
+        <v>22.45616759244133</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>15.03589985265063</v>
+        <v>15.03589985265056</v>
       </c>
       <c r="S25" t="n">
-        <v>115.8727725140452</v>
+        <v>115.8727725140451</v>
       </c>
       <c r="T25" t="n">
-        <v>145.6526964587725</v>
+        <v>145.6526964587724</v>
       </c>
       <c r="U25" t="n">
         <v>212.3155853882161</v>
       </c>
       <c r="V25" t="n">
-        <v>178.2413905064313</v>
+        <v>178.2413905064312</v>
       </c>
       <c r="W25" t="n">
-        <v>212.6267455191943</v>
+        <v>212.6267455191942</v>
       </c>
       <c r="X25" t="n">
-        <v>214.2286105534461</v>
+        <v>151.8134025716404</v>
       </c>
       <c r="Y25" t="n">
-        <v>144.6884005346981</v>
+        <v>144.688400534698</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210276</v>
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2731,7 +2731,7 @@
         <v>97.7798782957282</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S28" t="n">
         <v>142.7938887128493</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
@@ -3193,19 +3193,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797661</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G34" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T35" t="n">
         <v>156.9428335210276</v>
@@ -3430,19 +3430,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E37" t="n">
-        <v>99.45882602797661</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F37" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G37" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H37" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T38" t="n">
         <v>156.9428335210276</v>
@@ -3667,19 +3667,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797661</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G40" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3737,16 +3737,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>335.7587050448881</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C41" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D41" t="n">
-        <v>307.7079050020905</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E41" t="n">
-        <v>334.9552334536693</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F41" t="n">
         <v>359.9009091231189</v>
@@ -3755,7 +3755,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H41" t="n">
-        <v>247.632627768728</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,16 +3788,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.21262516958332</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T41" t="n">
-        <v>156.9428335210277</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U41" t="n">
         <v>204.0200353403094</v>
       </c>
       <c r="V41" t="n">
-        <v>280.7771218515424</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W41" t="n">
         <v>302.2658320988205</v>
@@ -3806,7 +3806,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y41" t="n">
-        <v>339.2628020374611</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="42">
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C43" t="n">
         <v>120.2716844800353</v>
@@ -3904,19 +3904,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797666</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433873</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G43" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572827</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I43" t="n">
-        <v>49.3772837912456</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145484</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S43" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T43" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U43" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V43" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W43" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X43" t="n">
-        <v>178.7345187704447</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y43" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>335.7587050448881</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C44" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D44" t="n">
-        <v>307.7079050020905</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E44" t="n">
-        <v>334.9552334536693</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F44" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G44" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H44" t="n">
-        <v>247.632627768728</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.21262516958333</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T44" t="n">
         <v>156.9428335210276</v>
@@ -4034,16 +4034,16 @@
         <v>204.0200353403094</v>
       </c>
       <c r="V44" t="n">
-        <v>280.7771218515424</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W44" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X44" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y44" t="n">
-        <v>339.2628020374611</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D46" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797666</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433873</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572827</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I46" t="n">
-        <v>49.3772837912456</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145484</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S46" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T46" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U46" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V46" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W46" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X46" t="n">
-        <v>178.7345187704447</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y46" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
   </sheetData>
@@ -5015,31 +5015,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1869.621706194907</v>
+        <v>1823.743460074461</v>
       </c>
       <c r="C11" t="n">
-        <v>1527.852235919954</v>
+        <v>1481.973989799509</v>
       </c>
       <c r="D11" t="n">
-        <v>1196.779583978662</v>
+        <v>1481.973989799509</v>
       </c>
       <c r="E11" t="n">
-        <v>838.1843780458769</v>
+        <v>1123.378783866723</v>
       </c>
       <c r="F11" t="n">
-        <v>454.3915199217282</v>
+        <v>739.5859257425745</v>
       </c>
       <c r="G11" t="n">
-        <v>66.5121164321834</v>
+        <v>351.7065222530298</v>
       </c>
       <c r="H11" t="n">
+        <v>81.3159685272559</v>
+      </c>
+      <c r="I11" t="n">
         <v>66.51211643218342</v>
       </c>
-      <c r="I11" t="n">
-        <v>66.5121164321834</v>
-      </c>
       <c r="J11" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K11" t="n">
         <v>589.2106210810553</v>
@@ -5051,10 +5051,10 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P11" t="n">
         <v>3018.302393296686</v>
@@ -5069,22 +5069,22 @@
         <v>3242.508199801725</v>
       </c>
       <c r="T11" t="n">
-        <v>3242.508199801725</v>
+        <v>3063.723498851406</v>
       </c>
       <c r="U11" t="n">
-        <v>3242.508199801725</v>
+        <v>3063.723498851406</v>
       </c>
       <c r="V11" t="n">
-        <v>2938.638359123613</v>
+        <v>2759.853658173294</v>
       </c>
       <c r="W11" t="n">
-        <v>2938.247496499544</v>
+        <v>2546.096538783478</v>
       </c>
       <c r="X11" t="n">
-        <v>2591.974784903923</v>
+        <v>2546.096538783478</v>
       </c>
       <c r="Y11" t="n">
-        <v>2229.02849959357</v>
+        <v>2183.150253473124</v>
       </c>
     </row>
     <row r="12">
@@ -5094,22 +5094,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927788</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
         <v>85.51940803064547</v>
@@ -5118,13 +5118,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158133</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5136,22 +5136,22 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5160,10 +5160,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>418.3291315370394</v>
+        <v>813.6992045346142</v>
       </c>
       <c r="C13" t="n">
-        <v>276.5859952745912</v>
+        <v>671.956068272166</v>
       </c>
       <c r="D13" t="n">
-        <v>276.5859952745912</v>
+        <v>549.0324755252891</v>
       </c>
       <c r="E13" t="n">
-        <v>155.8659483576568</v>
+        <v>428.3124286083549</v>
       </c>
       <c r="F13" t="n">
-        <v>136.6447469483793</v>
+        <v>308.6155277759033</v>
       </c>
       <c r="G13" t="n">
-        <v>136.6447469483793</v>
+        <v>168.105737816081</v>
       </c>
       <c r="H13" t="n">
         <v>136.6447469483793</v>
@@ -5200,10 +5200,10 @@
         <v>138.2866539159351</v>
       </c>
       <c r="K13" t="n">
-        <v>368.9257419016275</v>
+        <v>368.9257419016276</v>
       </c>
       <c r="L13" t="n">
-        <v>712.1374453869398</v>
+        <v>712.1374453869399</v>
       </c>
       <c r="M13" t="n">
         <v>1082.946396023305</v>
@@ -5215,34 +5215,34 @@
         <v>1776.988181723215</v>
       </c>
       <c r="P13" t="n">
-        <v>2036.24758719369</v>
+        <v>2036.247587193691</v>
       </c>
       <c r="Q13" t="n">
-        <v>2140.509788383021</v>
+        <v>2140.509788383022</v>
       </c>
       <c r="R13" t="n">
-        <v>2077.872377806008</v>
+        <v>2077.872377806009</v>
       </c>
       <c r="S13" t="n">
-        <v>1913.379540298293</v>
+        <v>1913.379540298294</v>
       </c>
       <c r="T13" t="n">
-        <v>1718.805971533278</v>
+        <v>1913.379540298294</v>
       </c>
       <c r="U13" t="n">
-        <v>1456.89615132438</v>
+        <v>1651.469720089396</v>
       </c>
       <c r="V13" t="n">
-        <v>1229.404709783952</v>
+        <v>1423.978278548968</v>
       </c>
       <c r="W13" t="n">
-        <v>967.1805864124503</v>
+        <v>1161.754155177466</v>
       </c>
       <c r="X13" t="n">
-        <v>766.3840821798917</v>
+        <v>1161.754155177466</v>
       </c>
       <c r="Y13" t="n">
-        <v>572.7845497018203</v>
+        <v>968.1546226993951</v>
       </c>
     </row>
     <row r="14">
@@ -5252,43 +5252,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1547.988059615397</v>
+        <v>2154.816112015754</v>
       </c>
       <c r="C14" t="n">
-        <v>1206.218589340444</v>
+        <v>1813.046641740801</v>
       </c>
       <c r="D14" t="n">
-        <v>875.1459373991526</v>
+        <v>1481.973989799509</v>
       </c>
       <c r="E14" t="n">
-        <v>516.5507314663669</v>
+        <v>1123.378783866724</v>
       </c>
       <c r="F14" t="n">
-        <v>516.5507314663669</v>
+        <v>739.5859257425748</v>
       </c>
       <c r="G14" t="n">
-        <v>336.9026701579575</v>
+        <v>351.70652225303</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>81.31596852725593</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
         <v>2623.528026939508</v>
@@ -5300,28 +5300,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>3242.508199801724</v>
       </c>
       <c r="T14" t="n">
-        <v>3146.821120658851</v>
+        <v>3063.723498851405</v>
       </c>
       <c r="U14" t="n">
-        <v>2920.483690598146</v>
+        <v>3063.723498851405</v>
       </c>
       <c r="V14" t="n">
-        <v>2616.613849920034</v>
+        <v>3063.723498851405</v>
       </c>
       <c r="W14" t="n">
-        <v>2616.613849920034</v>
+        <v>3063.723498851405</v>
       </c>
       <c r="X14" t="n">
-        <v>2270.341138324413</v>
+        <v>2877.16919072477</v>
       </c>
       <c r="Y14" t="n">
-        <v>1907.39485301406</v>
+        <v>2514.222905414417</v>
       </c>
     </row>
     <row r="15">
@@ -5352,7 +5352,7 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J15" t="n">
         <v>160.1893859228007</v>
@@ -5367,16 +5367,16 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
         <v>2564.909189125856</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>418.3291315370392</v>
+        <v>418.3291315370391</v>
       </c>
       <c r="C16" t="n">
-        <v>418.3291315370392</v>
+        <v>276.5859952745909</v>
       </c>
       <c r="D16" t="n">
-        <v>295.4055387901623</v>
+        <v>276.5859952745909</v>
       </c>
       <c r="E16" t="n">
-        <v>256.3416477808309</v>
+        <v>276.5859952745909</v>
       </c>
       <c r="F16" t="n">
-        <v>136.6447469483793</v>
+        <v>276.5859952745909</v>
       </c>
       <c r="G16" t="n">
-        <v>136.6447469483793</v>
+        <v>136.0762053147687</v>
       </c>
       <c r="H16" t="n">
-        <v>136.6447469483793</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J16" t="n">
         <v>138.2866539159351</v>
       </c>
       <c r="K16" t="n">
-        <v>368.9257419016276</v>
+        <v>368.9257419016275</v>
       </c>
       <c r="L16" t="n">
-        <v>712.1374453869398</v>
+        <v>712.1374453869397</v>
       </c>
       <c r="M16" t="n">
         <v>1082.946396023305</v>
@@ -5473,13 +5473,13 @@
         <v>1229.404709783952</v>
       </c>
       <c r="W16" t="n">
-        <v>967.1805864124501</v>
+        <v>967.1805864124502</v>
       </c>
       <c r="X16" t="n">
-        <v>766.3840821798915</v>
+        <v>766.3840821798913</v>
       </c>
       <c r="Y16" t="n">
-        <v>572.7845497018202</v>
+        <v>572.78454970182</v>
       </c>
     </row>
     <row r="17">
@@ -5489,52 +5489,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1650.246960790128</v>
+        <v>1855.314462232241</v>
       </c>
       <c r="C17" t="n">
-        <v>1355.927123463248</v>
+        <v>1560.994624905361</v>
       </c>
       <c r="D17" t="n">
         <v>1277.371605912143</v>
       </c>
       <c r="E17" t="n">
-        <v>966.2260329274309</v>
+        <v>966.2260329274304</v>
       </c>
       <c r="F17" t="n">
-        <v>629.8828077513554</v>
+        <v>629.8828077513549</v>
       </c>
       <c r="G17" t="n">
-        <v>289.4530372098842</v>
+        <v>289.4530372098841</v>
       </c>
       <c r="H17" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I17" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P17" t="n">
         <v>3018.302393296685</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R17" t="n">
         <v>3325.60582160917</v>
@@ -5543,22 +5543,22 @@
         <v>3289.957832749797</v>
       </c>
       <c r="T17" t="n">
-        <v>3289.957832749797</v>
+        <v>3238.605126461871</v>
       </c>
       <c r="U17" t="n">
-        <v>3111.070035637165</v>
+        <v>3059.71732934924</v>
       </c>
       <c r="V17" t="n">
-        <v>2854.649827907127</v>
+        <v>3059.71732934924</v>
       </c>
       <c r="W17" t="n">
-        <v>2576.523852250545</v>
+        <v>2781.591353692658</v>
       </c>
       <c r="X17" t="n">
-        <v>2277.700773602997</v>
+        <v>2482.76827504511</v>
       </c>
       <c r="Y17" t="n">
-        <v>1962.204121240717</v>
+        <v>2167.27162268283</v>
       </c>
     </row>
     <row r="18">
@@ -5568,37 +5568,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G18" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I18" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J18" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L18" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5610,7 +5610,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
         <v>2565.053542533341</v>
@@ -5625,7 +5625,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5634,10 +5634,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>632.1605877751699</v>
+        <v>569.1149231470827</v>
       </c>
       <c r="C19" t="n">
-        <v>474.8214198327083</v>
+        <v>474.8214198327078</v>
       </c>
       <c r="D19" t="n">
-        <v>399.3474600339046</v>
+        <v>399.3474600339042</v>
       </c>
       <c r="E19" t="n">
-        <v>326.0770460650435</v>
+        <v>326.0770460650432</v>
       </c>
       <c r="F19" t="n">
-        <v>253.8297781806652</v>
+        <v>253.829778180665</v>
       </c>
       <c r="G19" t="n">
-        <v>160.7696211689162</v>
+        <v>160.769621168916</v>
       </c>
       <c r="H19" t="n">
-        <v>89.19511400030603</v>
+        <v>89.19511400030595</v>
       </c>
       <c r="I19" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J19" t="n">
         <v>111.6347488791189</v>
@@ -5677,19 +5677,19 @@
         <v>315.6219318279952</v>
       </c>
       <c r="L19" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760404</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N19" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O19" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P19" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q19" t="n">
         <v>1927.294548088492</v>
@@ -5698,25 +5698,25 @@
         <v>1912.106770459552</v>
       </c>
       <c r="S19" t="n">
-        <v>1795.063565899911</v>
+        <v>1795.06356589991</v>
       </c>
       <c r="T19" t="n">
-        <v>1647.939630082969</v>
+        <v>1647.939630082968</v>
       </c>
       <c r="U19" t="n">
-        <v>1433.479442822144</v>
+        <v>1370.433778194057</v>
       </c>
       <c r="V19" t="n">
-        <v>1253.43763422979</v>
+        <v>1190.391969601702</v>
       </c>
       <c r="W19" t="n">
-        <v>1038.663143806361</v>
+        <v>975.6174791782736</v>
       </c>
       <c r="X19" t="n">
-        <v>885.3162725218756</v>
+        <v>822.2706078937883</v>
       </c>
       <c r="Y19" t="n">
-        <v>739.1663729918776</v>
+        <v>676.1207083637903</v>
       </c>
     </row>
     <row r="20">
@@ -5726,49 +5726,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1518.911892787882</v>
+        <v>1855.314462232241</v>
       </c>
       <c r="C20" t="n">
-        <v>1224.592055461002</v>
+        <v>1560.994624905361</v>
       </c>
       <c r="D20" t="n">
-        <v>940.9690364677837</v>
+        <v>1277.371605912143</v>
       </c>
       <c r="E20" t="n">
-        <v>629.8234634830715</v>
+        <v>966.2260329274307</v>
       </c>
       <c r="F20" t="n">
-        <v>293.4802383069959</v>
+        <v>629.8828077513551</v>
       </c>
       <c r="G20" t="n">
-        <v>289.4530372098842</v>
+        <v>289.4530372098841</v>
       </c>
       <c r="H20" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I20" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K20" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810566</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
         <v>3266.588755052368</v>
@@ -5783,19 +5783,19 @@
         <v>3158.622764747551</v>
       </c>
       <c r="U20" t="n">
-        <v>2979.734967634919</v>
+        <v>3059.71732934924</v>
       </c>
       <c r="V20" t="n">
-        <v>2723.314759904881</v>
+        <v>3059.71732934924</v>
       </c>
       <c r="W20" t="n">
-        <v>2445.188784248299</v>
+        <v>2781.591353692658</v>
       </c>
       <c r="X20" t="n">
-        <v>2146.365705600751</v>
+        <v>2482.76827504511</v>
       </c>
       <c r="Y20" t="n">
-        <v>1830.869053238471</v>
+        <v>2167.271622682831</v>
       </c>
     </row>
     <row r="21">
@@ -5826,25 +5826,25 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M21" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N21" t="n">
         <v>1685.951113992584</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P21" t="n">
         <v>2407.411984886741</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>632.1605877751699</v>
+        <v>569.1149231470827</v>
       </c>
       <c r="C22" t="n">
-        <v>537.867084460795</v>
+        <v>474.8214198327078</v>
       </c>
       <c r="D22" t="n">
-        <v>462.3931246619914</v>
+        <v>399.3474600339042</v>
       </c>
       <c r="E22" t="n">
-        <v>389.1227106931303</v>
+        <v>326.0770460650432</v>
       </c>
       <c r="F22" t="n">
-        <v>316.8754428087519</v>
+        <v>253.829778180665</v>
       </c>
       <c r="G22" t="n">
-        <v>160.7696211689162</v>
+        <v>160.769621168916</v>
       </c>
       <c r="H22" t="n">
-        <v>89.19511400030603</v>
+        <v>89.19511400030595</v>
       </c>
       <c r="I22" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J22" t="n">
         <v>111.6347488791189</v>
@@ -5914,19 +5914,19 @@
         <v>315.6219318279952</v>
       </c>
       <c r="L22" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760404</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N22" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O22" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P22" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q22" t="n">
         <v>1927.294548088492</v>
@@ -5935,25 +5935,25 @@
         <v>1912.106770459552</v>
       </c>
       <c r="S22" t="n">
-        <v>1795.063565899911</v>
+        <v>1795.06356589991</v>
       </c>
       <c r="T22" t="n">
-        <v>1647.939630082969</v>
+        <v>1584.893965454881</v>
       </c>
       <c r="U22" t="n">
-        <v>1433.479442822144</v>
+        <v>1370.433778194057</v>
       </c>
       <c r="V22" t="n">
-        <v>1253.43763422979</v>
+        <v>1190.391969601702</v>
       </c>
       <c r="W22" t="n">
-        <v>1038.663143806361</v>
+        <v>975.6174791782736</v>
       </c>
       <c r="X22" t="n">
-        <v>885.3162725218756</v>
+        <v>822.2706078937883</v>
       </c>
       <c r="Y22" t="n">
-        <v>739.1663729918776</v>
+        <v>676.1207083637903</v>
       </c>
     </row>
     <row r="23">
@@ -5966,73 +5966,73 @@
         <v>1862.17982079233</v>
       </c>
       <c r="C23" t="n">
-        <v>1567.859983465451</v>
+        <v>1567.85998346545</v>
       </c>
       <c r="D23" t="n">
         <v>1284.236964472232</v>
       </c>
       <c r="E23" t="n">
-        <v>973.09139148752</v>
+        <v>973.0913914875196</v>
       </c>
       <c r="F23" t="n">
         <v>636.7481663114445</v>
       </c>
       <c r="G23" t="n">
-        <v>296.3183957699732</v>
+        <v>296.3183957699731</v>
       </c>
       <c r="H23" t="n">
-        <v>73.37747499227238</v>
+        <v>73.37747499227237</v>
       </c>
       <c r="I23" t="n">
-        <v>73.37747499227238</v>
+        <v>73.37747499227237</v>
       </c>
       <c r="J23" t="n">
-        <v>262.2566059512978</v>
+        <v>388.4673346423514</v>
       </c>
       <c r="K23" t="n">
-        <v>596.0759796411442</v>
+        <v>722.2867083321978</v>
       </c>
       <c r="L23" t="n">
-        <v>1047.110192889553</v>
+        <v>1173.320921580606</v>
       </c>
       <c r="M23" t="n">
-        <v>1917.044667005837</v>
+        <v>1706.852826252531</v>
       </c>
       <c r="N23" t="n">
-        <v>2463.82348406462</v>
+        <v>2253.631643311313</v>
       </c>
       <c r="O23" t="n">
-        <v>2966.795954943957</v>
+        <v>2756.60411419065</v>
       </c>
       <c r="P23" t="n">
-        <v>3361.570321301134</v>
+        <v>3151.378480547828</v>
       </c>
       <c r="Q23" t="n">
-        <v>3609.856683056817</v>
+        <v>3609.856683056816</v>
       </c>
       <c r="R23" t="n">
-        <v>3668.873749613619</v>
+        <v>3668.873749613618</v>
       </c>
       <c r="S23" t="n">
-        <v>3633.225760754246</v>
+        <v>3633.225760754245</v>
       </c>
       <c r="T23" t="n">
-        <v>3501.890692752</v>
+        <v>3501.890692751999</v>
       </c>
       <c r="U23" t="n">
         <v>3323.002895639368</v>
       </c>
       <c r="V23" t="n">
-        <v>3066.58268790933</v>
+        <v>3066.582687909329</v>
       </c>
       <c r="W23" t="n">
-        <v>2788.456712252748</v>
+        <v>2788.456712252747</v>
       </c>
       <c r="X23" t="n">
-        <v>2489.6336336052</v>
+        <v>2489.633633605199</v>
       </c>
       <c r="Y23" t="n">
-        <v>2174.13698124292</v>
+        <v>2174.136981242919</v>
       </c>
     </row>
     <row r="24">
@@ -6063,7 +6063,7 @@
         <v>92.38476659073444</v>
       </c>
       <c r="I24" t="n">
-        <v>73.37747499227238</v>
+        <v>73.37747499227237</v>
       </c>
       <c r="J24" t="n">
         <v>167.0547444828896</v>
@@ -6072,16 +6072,16 @@
         <v>405.3189434632367</v>
       </c>
       <c r="L24" t="n">
-        <v>772.017103775903</v>
+        <v>772.017103775902</v>
       </c>
       <c r="M24" t="n">
-        <v>1219.293428998219</v>
+        <v>1219.293428998218</v>
       </c>
       <c r="N24" t="n">
-        <v>1692.816472552673</v>
+        <v>1692.816472552672</v>
       </c>
       <c r="O24" t="n">
-        <v>2103.777751970728</v>
+        <v>2103.777751970727</v>
       </c>
       <c r="P24" t="n">
         <v>2414.27734344683</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>575.9802817071721</v>
+        <v>639.0259463352592</v>
       </c>
       <c r="C25" t="n">
-        <v>481.6867783927973</v>
+        <v>544.7324430208844</v>
       </c>
       <c r="D25" t="n">
-        <v>406.2128185939936</v>
+        <v>469.2584832220808</v>
       </c>
       <c r="E25" t="n">
-        <v>332.9424046251326</v>
+        <v>395.9880692532197</v>
       </c>
       <c r="F25" t="n">
-        <v>260.6951367407542</v>
+        <v>323.7408013688415</v>
       </c>
       <c r="G25" t="n">
-        <v>167.6349797290052</v>
+        <v>230.6806443570926</v>
       </c>
       <c r="H25" t="n">
-        <v>96.060472560395</v>
+        <v>96.06047256039491</v>
       </c>
       <c r="I25" t="n">
-        <v>73.37747499227238</v>
+        <v>73.37747499227237</v>
       </c>
       <c r="J25" t="n">
         <v>118.5001074392079</v>
@@ -6172,25 +6172,25 @@
         <v>1918.972129019641</v>
       </c>
       <c r="S25" t="n">
-        <v>1801.928924459999</v>
+        <v>1801.92892446</v>
       </c>
       <c r="T25" t="n">
-        <v>1654.804988643057</v>
+        <v>1654.804988643058</v>
       </c>
       <c r="U25" t="n">
         <v>1440.344801382233</v>
       </c>
       <c r="V25" t="n">
-        <v>1260.302992789878</v>
+        <v>1260.302992789879</v>
       </c>
       <c r="W25" t="n">
         <v>1045.52850236645</v>
       </c>
       <c r="X25" t="n">
-        <v>829.1359664538778</v>
+        <v>892.1816310819648</v>
       </c>
       <c r="Y25" t="n">
-        <v>682.9860669238798</v>
+        <v>746.0317315519668</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.107542689501</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697163</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038486</v>
       </c>
       <c r="E26" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388315</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467787</v>
+        <v>698.9037015467806</v>
       </c>
       <c r="G26" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J26" t="n">
-        <v>270.0260478557145</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K26" t="n">
-        <v>603.8454215455608</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L26" t="n">
-        <v>1054.879634793969</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M26" t="n">
-        <v>1588.411539465894</v>
+        <v>1872.543307058812</v>
       </c>
       <c r="N26" t="n">
-        <v>2135.190356524676</v>
+        <v>2852.295579285459</v>
       </c>
       <c r="O26" t="n">
-        <v>3015.155006854131</v>
+        <v>3355.268050164796</v>
       </c>
       <c r="P26" t="n">
-        <v>3728.510094301076</v>
+        <v>3750.042416521974</v>
       </c>
       <c r="Q26" t="n">
-        <v>3998.328778277655</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W26" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833288</v>
       </c>
       <c r="Y26" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.25774980555</v>
       </c>
     </row>
     <row r="27">
@@ -6279,43 +6279,43 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456142</v>
       </c>
       <c r="C27" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644872</v>
       </c>
       <c r="D27" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E27" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977805</v>
       </c>
       <c r="F27" t="n">
         <v>327.0192030246656</v>
       </c>
       <c r="G27" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572841</v>
       </c>
       <c r="H27" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951516</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J27" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873068</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676539</v>
       </c>
       <c r="L27" t="n">
-        <v>779.7865456803188</v>
+        <v>779.7865456803193</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O27" t="n">
         <v>2111.547193875144</v>
@@ -6379,25 +6379,25 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J28" t="n">
         <v>172.7749345960314</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973139</v>
+        <v>423.2675027973145</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982166</v>
+        <v>786.3326864982173</v>
       </c>
       <c r="M28" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N28" t="n">
-        <v>1564.908879308443</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O28" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P28" t="n">
         <v>2189.856749167329</v>
@@ -6461,28 +6461,28 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J29" t="n">
-        <v>270.0260478557145</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K29" t="n">
-        <v>924.7493799910139</v>
+        <v>771.251070565914</v>
       </c>
       <c r="L29" t="n">
-        <v>1771.984857554751</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M29" t="n">
-        <v>2305.516762226675</v>
+        <v>1755.817188486247</v>
       </c>
       <c r="N29" t="n">
-        <v>2852.295579285458</v>
+        <v>2302.596005545029</v>
       </c>
       <c r="O29" t="n">
-        <v>3355.268050164795</v>
+        <v>2805.568476424366</v>
       </c>
       <c r="P29" t="n">
-        <v>3750.042416521972</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q29" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R29" t="n">
         <v>4057.345844834457</v>
@@ -6497,7 +6497,7 @@
         <v>3629.895850863831</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W29" t="n">
         <v>3040.963574146293</v>
@@ -6540,7 +6540,7 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873071</v>
       </c>
       <c r="K30" t="n">
         <v>413.0883853676542</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502697998</v>
+        <v>774.1010502697994</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899661</v>
+        <v>652.6145002899658</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257038</v>
+        <v>549.9474938257034</v>
       </c>
       <c r="E31" t="n">
-        <v>449.484033191384</v>
+        <v>449.4840331913837</v>
       </c>
       <c r="F31" t="n">
-        <v>350.043718641547</v>
+        <v>350.0437186415467</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643389</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0229611302704</v>
+        <v>131.02296113027</v>
       </c>
       <c r="I31" t="n">
         <v>81.14691689668915</v>
@@ -6625,10 +6625,10 @@
         <v>423.2675027973144</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M31" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N31" t="n">
         <v>1564.908879308444</v>
@@ -6655,7 +6655,7 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V31" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W31" t="n">
         <v>1262.182746297367</v>
@@ -6664,7 +6664,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519661</v>
+        <v>908.2998821519658</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C32" t="n">
         <v>1711.594658697161</v>
@@ -6686,16 +6686,16 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467793</v>
       </c>
       <c r="G32" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J32" t="n">
         <v>437.4316968760676</v>
@@ -6710,28 +6710,28 @@
         <v>1755.817188486247</v>
       </c>
       <c r="N32" t="n">
-        <v>2735.569460712893</v>
+        <v>2302.596005545029</v>
       </c>
       <c r="O32" t="n">
-        <v>3238.54193159223</v>
+        <v>2805.568476424366</v>
       </c>
       <c r="P32" t="n">
-        <v>3633.316297949408</v>
+        <v>3474.791320094415</v>
       </c>
       <c r="Q32" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R32" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V32" t="n">
         <v>3346.282596468334</v>
@@ -6740,7 +6740,7 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y32" t="n">
         <v>2372.257749805548</v>
@@ -6774,7 +6774,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J33" t="n">
         <v>174.8241863873064</v>
@@ -6795,7 +6795,7 @@
         <v>2111.547193875144</v>
       </c>
       <c r="P33" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q33" t="n">
         <v>2579.688342997847</v>
@@ -6832,40 +6832,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502697998</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899661</v>
       </c>
       <c r="D34" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257038</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913842</v>
+        <v>449.484033191384</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415469</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643392</v>
       </c>
       <c r="H34" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J34" t="n">
-        <v>172.774934596031</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973141</v>
+        <v>423.2675027973142</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982168</v>
+        <v>786.332686498217</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N34" t="n">
         <v>1564.908879308444</v>
@@ -6874,7 +6874,7 @@
         <v>1910.743863481264</v>
       </c>
       <c r="P34" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q34" t="n">
         <v>2313.972430572251</v>
@@ -6892,7 +6892,7 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V34" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W34" t="n">
         <v>1262.182746297367</v>
@@ -6901,7 +6901,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519661</v>
       </c>
     </row>
     <row r="35">
@@ -6914,16 +6914,16 @@
         <v>2033.1075426895</v>
       </c>
       <c r="C35" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D35" t="n">
         <v>1400.778593038484</v>
       </c>
       <c r="E35" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F35" t="n">
-        <v>698.9037015467793</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G35" t="n">
         <v>331.2808843398487</v>
@@ -6935,25 +6935,25 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J35" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K35" t="n">
-        <v>771.251070565914</v>
+        <v>792.1780824632694</v>
       </c>
       <c r="L35" t="n">
-        <v>1222.285283814323</v>
+        <v>1243.212295711678</v>
       </c>
       <c r="M35" t="n">
-        <v>1755.817188486247</v>
+        <v>1776.744200383602</v>
       </c>
       <c r="N35" t="n">
-        <v>2735.569460712893</v>
+        <v>2323.523017442385</v>
       </c>
       <c r="O35" t="n">
-        <v>3238.54193159223</v>
+        <v>2826.495488321721</v>
       </c>
       <c r="P35" t="n">
-        <v>3750.042416521973</v>
+        <v>3539.850575768667</v>
       </c>
       <c r="Q35" t="n">
         <v>3998.328778277655</v>
@@ -6962,13 +6962,13 @@
         <v>4057.345844834458</v>
       </c>
       <c r="S35" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T35" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U35" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V35" t="n">
         <v>3346.282596468334</v>
@@ -6977,7 +6977,7 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X35" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y35" t="n">
         <v>2372.257749805548</v>
@@ -7026,13 +7026,13 @@
         <v>1227.062870902635</v>
       </c>
       <c r="N36" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O36" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P36" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q36" t="n">
         <v>2579.688342997847</v>
@@ -7069,13 +7069,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C37" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D37" t="n">
-        <v>549.9474938257041</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E37" t="n">
         <v>449.4840331913842</v>
@@ -7099,7 +7099,7 @@
         <v>423.2675027973143</v>
       </c>
       <c r="L37" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M37" t="n">
         <v>1176.995117350173</v>
@@ -7138,7 +7138,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y37" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C38" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D38" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038483</v>
       </c>
       <c r="E38" t="n">
         <v>1062.439973388313</v>
       </c>
       <c r="F38" t="n">
-        <v>698.903701546779</v>
+        <v>698.9037015467784</v>
       </c>
       <c r="G38" t="n">
         <v>331.2808843398487</v>
@@ -7175,28 +7175,28 @@
         <v>270.0260478557145</v>
       </c>
       <c r="K38" t="n">
-        <v>603.8454215455608</v>
+        <v>924.7493799910139</v>
       </c>
       <c r="L38" t="n">
-        <v>1388.344880790731</v>
+        <v>1375.783593239423</v>
       </c>
       <c r="M38" t="n">
-        <v>1921.876785462656</v>
+        <v>1909.315497911347</v>
       </c>
       <c r="N38" t="n">
-        <v>2468.655602521438</v>
+        <v>2456.094314970129</v>
       </c>
       <c r="O38" t="n">
-        <v>2971.628073400775</v>
+        <v>2959.066785849466</v>
       </c>
       <c r="P38" t="n">
-        <v>3684.98316084772</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q38" t="n">
         <v>3933.269522603402</v>
       </c>
       <c r="R38" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834457</v>
       </c>
       <c r="S38" t="n">
         <v>3994.504809309626</v>
@@ -7205,16 +7205,16 @@
         <v>3835.976694641921</v>
       </c>
       <c r="U38" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V38" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W38" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X38" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y38" t="n">
         <v>2372.257749805548</v>
@@ -7263,13 +7263,13 @@
         <v>1227.062870902635</v>
       </c>
       <c r="N39" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O39" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P39" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q39" t="n">
         <v>2579.688342997847</v>
@@ -7306,13 +7306,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C40" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D40" t="n">
-        <v>549.9474938257041</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E40" t="n">
         <v>449.4840331913842</v>
@@ -7330,10 +7330,10 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J40" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K40" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L40" t="n">
         <v>786.3326864982171</v>
@@ -7375,7 +7375,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y40" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="41">
@@ -7397,7 +7397,7 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F41" t="n">
-        <v>698.9037015467783</v>
+        <v>698.9037015467785</v>
       </c>
       <c r="G41" t="n">
         <v>331.2808843398487</v>
@@ -7409,31 +7409,31 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J41" t="n">
-        <v>270.0260478557145</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K41" t="n">
-        <v>603.8454215455608</v>
+        <v>771.251070565914</v>
       </c>
       <c r="L41" t="n">
-        <v>1054.879634793969</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M41" t="n">
-        <v>1588.411539465894</v>
+        <v>1755.817188486247</v>
       </c>
       <c r="N41" t="n">
-        <v>2468.655602521438</v>
+        <v>2302.596005545029</v>
       </c>
       <c r="O41" t="n">
-        <v>2971.628073400775</v>
+        <v>2805.568476424366</v>
       </c>
       <c r="P41" t="n">
-        <v>3684.98316084772</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q41" t="n">
         <v>3933.269522603402</v>
       </c>
       <c r="R41" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834457</v>
       </c>
       <c r="S41" t="n">
         <v>3994.504809309626</v>
@@ -7442,10 +7442,10 @@
         <v>3835.976694641921</v>
       </c>
       <c r="U41" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V41" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W41" t="n">
         <v>3040.963574146293</v>
@@ -7488,13 +7488,13 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J42" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873071</v>
       </c>
       <c r="K42" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676542</v>
       </c>
       <c r="L42" t="n">
-        <v>779.7865456803188</v>
+        <v>779.7865456803195</v>
       </c>
       <c r="M42" t="n">
         <v>1227.062870902635</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>774.1010502698005</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C43" t="n">
-        <v>652.6145002899668</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D43" t="n">
-        <v>549.9474938257043</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E43" t="n">
-        <v>449.4840331913845</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F43" t="n">
-        <v>350.0437186415473</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G43" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H43" t="n">
-        <v>131.0229611302706</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I43" t="n">
         <v>81.14691689668915</v>
       </c>
       <c r="J43" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K43" t="n">
-        <v>423.2675027973141</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L43" t="n">
-        <v>786.3326864982181</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M43" t="n">
-        <v>1176.995117350174</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N43" t="n">
-        <v>1564.908879308445</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O43" t="n">
-        <v>1910.743863481265</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P43" t="n">
-        <v>2189.856749167331</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q43" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R43" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S43" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T43" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U43" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V43" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W43" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X43" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y43" t="n">
-        <v>908.2998821519669</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2033.107542689501</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C44" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.59465869716</v>
       </c>
       <c r="D44" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038483</v>
       </c>
       <c r="E44" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388312</v>
       </c>
       <c r="F44" t="n">
-        <v>698.9037015467792</v>
+        <v>698.9037015467783</v>
       </c>
       <c r="G44" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H44" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I44" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J44" t="n">
         <v>437.4316968760676</v>
       </c>
       <c r="K44" t="n">
-        <v>1092.155029011367</v>
+        <v>771.251070565914</v>
       </c>
       <c r="L44" t="n">
-        <v>1543.189242259775</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M44" t="n">
-        <v>2305.516762226677</v>
+        <v>1755.817188486247</v>
       </c>
       <c r="N44" t="n">
-        <v>2852.29557928546</v>
+        <v>2302.596005545029</v>
       </c>
       <c r="O44" t="n">
-        <v>3355.268050164796</v>
+        <v>3182.560655874483</v>
       </c>
       <c r="P44" t="n">
-        <v>3750.042416521974</v>
+        <v>3577.335022231661</v>
       </c>
       <c r="Q44" t="n">
-        <v>3998.328778277657</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R44" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834457</v>
       </c>
       <c r="S44" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T44" t="n">
-        <v>3835.976694641923</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U44" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V44" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W44" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146292</v>
       </c>
       <c r="X44" t="n">
-        <v>2714.947448833288</v>
+        <v>2714.947448833285</v>
       </c>
       <c r="Y44" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805547</v>
       </c>
     </row>
     <row r="45">
@@ -7722,7 +7722,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I45" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J45" t="n">
         <v>174.8241863873064</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>774.1010502698005</v>
+        <v>774.1010502697999</v>
       </c>
       <c r="C46" t="n">
-        <v>652.6145002899668</v>
+        <v>652.6145002899663</v>
       </c>
       <c r="D46" t="n">
-        <v>549.9474938257043</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E46" t="n">
-        <v>449.4840331913845</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F46" t="n">
-        <v>350.0437186415473</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G46" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H46" t="n">
-        <v>131.0229611302706</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I46" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J46" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K46" t="n">
-        <v>423.2675027973142</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L46" t="n">
-        <v>786.3326864982168</v>
+        <v>786.3326864982166</v>
       </c>
       <c r="M46" t="n">
         <v>1176.995117350172</v>
@@ -7822,34 +7822,34 @@
         <v>1910.743863481263</v>
       </c>
       <c r="P46" t="n">
-        <v>2189.856749167331</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q46" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R46" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S46" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T46" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U46" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V46" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W46" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X46" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y46" t="n">
-        <v>908.2998821519669</v>
+        <v>908.2998821519662</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>164.4450187886096</v>
+        <v>164.445018788609</v>
       </c>
       <c r="K8" t="n">
-        <v>195.2094266592915</v>
+        <v>195.2094266592907</v>
       </c>
       <c r="L8" t="n">
-        <v>204.9000484419201</v>
+        <v>204.900048441919</v>
       </c>
       <c r="M8" t="n">
-        <v>196.0014531526788</v>
+        <v>196.0014531526777</v>
       </c>
       <c r="N8" t="n">
-        <v>194.512549074028</v>
+        <v>194.5125490740269</v>
       </c>
       <c r="O8" t="n">
-        <v>197.1426452201065</v>
+        <v>197.1426452201054</v>
       </c>
       <c r="P8" t="n">
-        <v>203.1061824561917</v>
+        <v>203.1061824561908</v>
       </c>
       <c r="Q8" t="n">
-        <v>201.1836244567234</v>
+        <v>201.1836244567227</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>116.9502528485208</v>
+        <v>116.9502528485205</v>
       </c>
       <c r="K9" t="n">
-        <v>120.9423422814164</v>
+        <v>120.9423422814159</v>
       </c>
       <c r="L9" t="n">
-        <v>115.8314587981505</v>
+        <v>115.8314587981497</v>
       </c>
       <c r="M9" t="n">
-        <v>115.6174569072889</v>
+        <v>115.6174569072881</v>
       </c>
       <c r="N9" t="n">
-        <v>104.1233201775615</v>
+        <v>104.1233201775606</v>
       </c>
       <c r="O9" t="n">
-        <v>117.6967333951451</v>
+        <v>117.6967333951442</v>
       </c>
       <c r="P9" t="n">
-        <v>113.9903546175969</v>
+        <v>113.9903546175962</v>
       </c>
       <c r="Q9" t="n">
-        <v>126.6229640213394</v>
+        <v>126.622964021339</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>121.8405463218795</v>
+        <v>121.840546321879</v>
       </c>
       <c r="M10" t="n">
-        <v>125.1725778274373</v>
+        <v>125.1725778274368</v>
       </c>
       <c r="N10" t="n">
-        <v>114.2593588466758</v>
+        <v>114.2593588466754</v>
       </c>
       <c r="O10" t="n">
-        <v>126.0552829419913</v>
+        <v>126.0552829419909</v>
       </c>
       <c r="P10" t="n">
-        <v>127.1165875773786</v>
+        <v>127.1165875773783</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9176,7 +9176,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>127.4855845364179</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>339.8005751963237</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9656,7 +9656,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9738,7 +9738,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>4.592992652874273e-13</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9881,19 +9881,19 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>287.0017854473915</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>21.74982042514776</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10109,13 +10109,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>400.2032972882108</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10127,13 +10127,13 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>277.2206841544146</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10358,19 +10358,19 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>277.2206841544156</v>
       </c>
       <c r="Q32" t="n">
-        <v>117.9051702753179</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,10 +10583,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>190.2350110279885</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10595,16 +10595,16 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>117.9051702753177</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10823,10 +10823,10 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>336.8335818149108</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10838,10 +10838,10 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>122.1718867553236</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11069,16 +11069,16 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>336.8335818149109</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>277.2206841544146</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11297,28 +11297,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>231.1066821161388</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>108.7354935515743</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.10714246085647</v>
+        <v>15.10714246085646</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>327.7619254218787</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>267.6866481885163</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>14.65581357412177</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>176.996853940816</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>224.0740557600978</v>
@@ -23318,10 +23318,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>321.9328985207811</v>
+        <v>110.700304322691</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>342.8099844796648</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23419,19 +23419,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>121.6943568194082</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>99.47094242894235</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>139.1046920602241</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>117.8338987155166</v>
+        <v>86.68751775649187</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>192.627833077365</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>198.788539190233</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23504,16 +23504,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>379.9549295429073</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>206.1490287593239</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>14.65581357412182</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,22 +23543,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.26664558937169</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>224.0740557600978</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>300.8311422713307</v>
       </c>
       <c r="W14" t="n">
         <v>322.3198525186089</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>158.1212194342962</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>140.3257048998237</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>121.6943568194082</v>
       </c>
       <c r="E16" t="n">
-        <v>80.83959434852693</v>
+        <v>119.512846447765</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>118.4999318241271</v>
       </c>
       <c r="G16" t="n">
-        <v>139.1046920602241</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>117.8338987155166</v>
+        <v>48.96545072175734</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>69.43130421103393</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>203.0168264276924</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23783,13 +23783,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>130.0217173222235</v>
+        <v>79.18253809717717</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>253.8560056527381</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23981,7 +23981,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>333.0385437499154</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24023,10 +24023,10 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>79.18253809717726</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>253.8560056527381</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1391905.723002602</v>
+        <v>1391905.723002601</v>
       </c>
     </row>
     <row r="5">
@@ -26317,7 +26317,7 @@
         <v>122891.6271529746</v>
       </c>
       <c r="D2" t="n">
-        <v>122893.7862125039</v>
+        <v>122893.7862125038</v>
       </c>
       <c r="E2" t="n">
         <v>109431.2570119428</v>
@@ -26353,7 +26353,7 @@
         <v>123156.2654796423</v>
       </c>
       <c r="P2" t="n">
-        <v>123156.2654796424</v>
+        <v>123156.2654796423</v>
       </c>
     </row>
     <row r="3">
@@ -26369,31 +26369,31 @@
         <v>3345.426898312242</v>
       </c>
       <c r="D3" t="n">
-        <v>38521.85015936226</v>
+        <v>38521.85015936364</v>
       </c>
       <c r="E3" t="n">
-        <v>1106215.961015504</v>
+        <v>1106215.961015502</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487404</v>
+        <v>37580.10929487408</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>22820.53767071777</v>
+        <v>22820.53767071774</v>
       </c>
       <c r="J3" t="n">
-        <v>25410.34822049024</v>
+        <v>25410.34822049039</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487402</v>
+        <v>37580.10929487406</v>
       </c>
       <c r="M3" t="n">
         <v>207188.5682920729</v>
@@ -26421,22 +26421,22 @@
         <v>435241.0409526688</v>
       </c>
       <c r="D4" t="n">
-        <v>422862.857334306</v>
+        <v>422862.8573343055</v>
       </c>
       <c r="E4" t="n">
-        <v>38195.30988554745</v>
+        <v>38195.3098855475</v>
       </c>
       <c r="F4" t="n">
-        <v>38195.30988554747</v>
+        <v>38195.30988554748</v>
       </c>
       <c r="G4" t="n">
-        <v>75223.10714400186</v>
+        <v>75223.1071440019</v>
       </c>
       <c r="H4" t="n">
-        <v>75223.10714400184</v>
+        <v>75223.1071440019</v>
       </c>
       <c r="I4" t="n">
-        <v>86759.1327915719</v>
+        <v>86759.13279157193</v>
       </c>
       <c r="J4" t="n">
         <v>82806.76150409845</v>
@@ -26445,19 +26445,19 @@
         <v>82806.76150409845</v>
       </c>
       <c r="L4" t="n">
+        <v>82806.76150409848</v>
+      </c>
+      <c r="M4" t="n">
+        <v>82806.76150409845</v>
+      </c>
+      <c r="N4" t="n">
+        <v>82806.76150409845</v>
+      </c>
+      <c r="O4" t="n">
         <v>82806.76150409844</v>
       </c>
-      <c r="M4" t="n">
-        <v>82806.76150409842</v>
-      </c>
-      <c r="N4" t="n">
-        <v>82806.76150409842</v>
-      </c>
-      <c r="O4" t="n">
-        <v>82806.76150409842</v>
-      </c>
       <c r="P4" t="n">
-        <v>82806.76150409848</v>
+        <v>82806.76150409845</v>
       </c>
     </row>
     <row r="5">
@@ -26473,10 +26473,10 @@
         <v>33707.69021107268</v>
       </c>
       <c r="D5" t="n">
-        <v>34688.26308058917</v>
+        <v>34688.26308058921</v>
       </c>
       <c r="E5" t="n">
-        <v>76569.57187911056</v>
+        <v>76569.57187911058</v>
       </c>
       <c r="F5" t="n">
         <v>76569.57187911056</v>
@@ -26488,19 +26488,19 @@
         <v>80518.72463949901</v>
       </c>
       <c r="I5" t="n">
-        <v>85736.39714516663</v>
+        <v>85736.39714516661</v>
       </c>
       <c r="J5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480613</v>
       </c>
       <c r="K5" t="n">
         <v>89377.9416748061</v>
       </c>
       <c r="L5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="M5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="N5" t="n">
         <v>89377.9416748061</v>
@@ -26509,7 +26509,7 @@
         <v>89377.9416748061</v>
       </c>
       <c r="P5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-347010.0289116924</v>
+        <v>-347014.4424895605</v>
       </c>
       <c r="C6" t="n">
-        <v>-349402.5309090791</v>
+        <v>-349406.9415478569</v>
       </c>
       <c r="D6" t="n">
-        <v>-373179.1843617536</v>
+        <v>-373183.5590162069</v>
       </c>
       <c r="E6" t="n">
-        <v>-1111549.585768219</v>
+        <v>-1111778.335909346</v>
       </c>
       <c r="F6" t="n">
-        <v>-5333.624752715201</v>
+        <v>-5562.374893843558</v>
       </c>
       <c r="G6" t="n">
-        <v>-74142.15581110628</v>
+        <v>-74208.43048131261</v>
       </c>
       <c r="H6" t="n">
-        <v>-36562.04651623222</v>
+        <v>-36628.32118643853</v>
       </c>
       <c r="I6" t="n">
         <v>-72159.80212781367</v>
       </c>
       <c r="J6" t="n">
-        <v>-74438.78591975248</v>
+        <v>-74438.78591975269</v>
       </c>
       <c r="K6" t="n">
-        <v>-49028.43769926214</v>
+        <v>-49028.43769926211</v>
       </c>
       <c r="L6" t="n">
-        <v>-86608.54699413612</v>
+        <v>-86608.54699413621</v>
       </c>
       <c r="M6" t="n">
         <v>-256217.0059913352</v>
       </c>
       <c r="N6" t="n">
-        <v>-49028.43769926224</v>
+        <v>-49028.43769926223</v>
       </c>
       <c r="O6" t="n">
-        <v>-49028.4376992622</v>
+        <v>-49028.43769926221</v>
       </c>
       <c r="P6" t="n">
-        <v>-49028.43769926224</v>
+        <v>-49028.43769926223</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92111619880416</v>
+        <v>26.9211161988042</v>
       </c>
       <c r="F2" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880419</v>
       </c>
       <c r="G2" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="H2" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="I2" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="J2" t="n">
         <v>46.97513661859259</v>
@@ -26713,19 +26713,19 @@
         <v>46.97513661859259</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>3.673862893242319</v>
       </c>
       <c r="D3" t="n">
-        <v>48.65426975179702</v>
+        <v>48.65426975179863</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26796,28 +26796,28 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="I4" t="n">
-        <v>917.2184374034048</v>
+        <v>917.2184374034046</v>
       </c>
       <c r="J4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="K4" t="n">
         <v>1014.336461208614</v>
       </c>
       <c r="L4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="M4" t="n">
         <v>1014.336461208614</v>
@@ -26829,7 +26829,7 @@
         <v>1014.336461208614</v>
       </c>
       <c r="P4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92111619880417</v>
+        <v>26.92111619880419</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>3.673862893242319</v>
       </c>
       <c r="D3" t="n">
-        <v>44.9804068585547</v>
+        <v>44.98040685855631</v>
       </c>
       <c r="E3" t="n">
-        <v>1041.122430841501</v>
+        <v>1041.1224308415</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>85.81698200111225</v>
+        <v>85.81698200111214</v>
       </c>
       <c r="J4" t="n">
-        <v>97.11802380520953</v>
+        <v>97.1180238052101</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>26.92111619880417</v>
+        <v>26.92111619880419</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>337.4716642661367</v>
+        <v>337.4716642661365</v>
       </c>
       <c r="I8" t="n">
-        <v>202.9352112403309</v>
+        <v>202.9352112403307</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>137.5825701128228</v>
+        <v>137.5825701128224</v>
       </c>
       <c r="S8" t="n">
-        <v>204.5629472868722</v>
+        <v>204.562947286872</v>
       </c>
       <c r="T8" t="n">
-        <v>222.2396322140269</v>
+        <v>222.2396322140268</v>
       </c>
       <c r="U8" t="n">
         <v>251.3300053034942</v>
@@ -27950,7 +27950,7 @@
         <v>111.2247206327846</v>
       </c>
       <c r="I9" t="n">
-        <v>85.79346287451312</v>
+        <v>85.79346287451301</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,10 +27977,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>93.66019412805409</v>
+        <v>93.66019412805387</v>
       </c>
       <c r="S9" t="n">
-        <v>169.7392953264901</v>
+        <v>169.73929532649</v>
       </c>
       <c r="T9" t="n">
         <v>199.7429053561244</v>
@@ -28026,16 +28026,16 @@
         <v>167.9032421507096</v>
       </c>
       <c r="H10" t="n">
-        <v>161.4471089694518</v>
+        <v>161.4471089694517</v>
       </c>
       <c r="I10" t="n">
-        <v>152.8119778069477</v>
+        <v>152.8119778069476</v>
       </c>
       <c r="J10" t="n">
-        <v>87.15615952880843</v>
+        <v>87.15615952880822</v>
       </c>
       <c r="K10" t="n">
-        <v>12.07602350739161</v>
+        <v>12.07602350739127</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.81524851917304</v>
+        <v>78.8152485191728</v>
       </c>
       <c r="R10" t="n">
-        <v>173.3484074723762</v>
+        <v>173.3484074723761</v>
       </c>
       <c r="S10" t="n">
-        <v>222.4875777891986</v>
+        <v>222.4875777891985</v>
       </c>
       <c r="T10" t="n">
         <v>227.5707122678988</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.92111619880416</v>
+        <v>26.9211161988042</v>
       </c>
       <c r="C11" t="n">
-        <v>26.92111619880416</v>
+        <v>26.9211161988042</v>
       </c>
       <c r="D11" t="n">
-        <v>26.92111619880416</v>
+        <v>26.9211161988042</v>
       </c>
       <c r="E11" t="n">
-        <v>26.92111619880416</v>
+        <v>26.9211161988042</v>
       </c>
       <c r="F11" t="n">
-        <v>26.92111619880416</v>
+        <v>26.9211161988042</v>
       </c>
       <c r="G11" t="n">
-        <v>26.92111619880416</v>
+        <v>26.9211161988042</v>
       </c>
       <c r="H11" t="n">
-        <v>26.92111619880416</v>
+        <v>26.9211161988042</v>
       </c>
       <c r="I11" t="n">
-        <v>26.92111619880416</v>
+        <v>26.9211161988042</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.92111619880416</v>
+        <v>26.9211161988042</v>
       </c>
       <c r="T11" t="n">
-        <v>26.92111619880416</v>
+        <v>26.9211161988042</v>
       </c>
       <c r="U11" t="n">
-        <v>26.92111619880416</v>
+        <v>26.9211161988042</v>
       </c>
       <c r="V11" t="n">
-        <v>26.92111619880416</v>
+        <v>26.9211161988042</v>
       </c>
       <c r="W11" t="n">
-        <v>26.92111619880416</v>
+        <v>26.9211161988042</v>
       </c>
       <c r="X11" t="n">
-        <v>26.92111619880416</v>
+        <v>26.9211161988042</v>
       </c>
       <c r="Y11" t="n">
-        <v>26.92111619880416</v>
+        <v>26.9211161988042</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.9211161988042</v>
       </c>
       <c r="C13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.9211161988042</v>
       </c>
       <c r="D13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.9211161988042</v>
       </c>
       <c r="E13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.9211161988042</v>
       </c>
       <c r="F13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.9211161988042</v>
       </c>
       <c r="G13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.9211161988042</v>
       </c>
       <c r="H13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.9211161988042</v>
       </c>
       <c r="I13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.9211161988042</v>
       </c>
       <c r="J13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.9211161988042</v>
       </c>
       <c r="K13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.9211161988042</v>
       </c>
       <c r="L13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.9211161988042</v>
       </c>
       <c r="M13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.9211161988042</v>
       </c>
       <c r="N13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.9211161988042</v>
       </c>
       <c r="O13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.9211161988042</v>
       </c>
       <c r="P13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.9211161988042</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.9211161988042</v>
       </c>
       <c r="R13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.9211161988042</v>
       </c>
       <c r="S13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.9211161988042</v>
       </c>
       <c r="T13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.9211161988042</v>
       </c>
       <c r="U13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.9211161988042</v>
       </c>
       <c r="V13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.9211161988042</v>
       </c>
       <c r="W13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.9211161988042</v>
       </c>
       <c r="X13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.9211161988042</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.9211161988042</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880419</v>
       </c>
       <c r="C14" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880419</v>
       </c>
       <c r="D14" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880419</v>
       </c>
       <c r="E14" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880419</v>
       </c>
       <c r="F14" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880419</v>
       </c>
       <c r="G14" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880419</v>
       </c>
       <c r="H14" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880419</v>
       </c>
       <c r="I14" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880419</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880419</v>
       </c>
       <c r="T14" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880419</v>
       </c>
       <c r="U14" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880419</v>
       </c>
       <c r="V14" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880419</v>
       </c>
       <c r="W14" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880419</v>
       </c>
       <c r="X14" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880419</v>
       </c>
       <c r="Y14" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880419</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880419</v>
       </c>
       <c r="C16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880419</v>
       </c>
       <c r="D16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880419</v>
       </c>
       <c r="E16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880419</v>
       </c>
       <c r="F16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880419</v>
       </c>
       <c r="G16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880419</v>
       </c>
       <c r="H16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880419</v>
       </c>
       <c r="I16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880419</v>
       </c>
       <c r="J16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880419</v>
       </c>
       <c r="K16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880419</v>
       </c>
       <c r="L16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880419</v>
       </c>
       <c r="M16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880419</v>
       </c>
       <c r="N16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880419</v>
       </c>
       <c r="O16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880419</v>
       </c>
       <c r="P16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880419</v>
       </c>
       <c r="Q16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880419</v>
       </c>
       <c r="R16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880419</v>
       </c>
       <c r="S16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880419</v>
       </c>
       <c r="T16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880419</v>
       </c>
       <c r="U16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880419</v>
       </c>
       <c r="V16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880419</v>
       </c>
       <c r="W16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880419</v>
       </c>
       <c r="X16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880419</v>
       </c>
       <c r="Y16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880419</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="C17" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="D17" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="E17" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="F17" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="G17" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="H17" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="T17" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="U17" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="V17" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="W17" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="X17" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="Y17" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739679</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="C19" t="n">
-        <v>11.48104483559081</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="D19" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="E19" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="F19" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="G19" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="H19" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="I19" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="S19" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="T19" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="U19" t="n">
-        <v>73.89625281739671</v>
+        <v>11.48104483559064</v>
       </c>
       <c r="V19" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="W19" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="X19" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739679</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="C20" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="D20" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="E20" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="F20" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="G20" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="H20" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="T20" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="U20" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="V20" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="W20" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="X20" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="Y20" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739679</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="C22" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="D22" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="E22" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="F22" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="G22" t="n">
-        <v>11.48104483559089</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="H22" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="I22" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="S22" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="T22" t="n">
-        <v>73.89625281739671</v>
+        <v>11.48104483559061</v>
       </c>
       <c r="U22" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="V22" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="W22" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="X22" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739679</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="C23" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="D23" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="E23" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="F23" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="G23" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="H23" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292598</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="T23" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="U23" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="V23" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="W23" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="X23" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="Y23" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739679</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="C25" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="D25" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="E25" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="F25" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="G25" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="H25" t="n">
-        <v>73.89625281739671</v>
+        <v>11.48104483559007</v>
       </c>
       <c r="I25" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="S25" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="T25" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="U25" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="V25" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="W25" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="X25" t="n">
-        <v>11.48104483559106</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="Y25" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739679</v>
       </c>
     </row>
     <row r="26">
@@ -29293,7 +29293,7 @@
         <v>46.97513661859259</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29457,7 +29457,7 @@
         <v>46.97513661859259</v>
       </c>
       <c r="K28" t="n">
-        <v>46.9751366185921</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L28" t="n">
         <v>46.97513661859259</v>
@@ -29472,7 +29472,7 @@
         <v>46.97513661859259</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859165</v>
       </c>
       <c r="Q28" t="n">
         <v>46.97513661859259</v>
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292598</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292598</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859273</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292598</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859266</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859244</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C41" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D41" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E41" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F41" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G41" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H41" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292598</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T41" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U41" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V41" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W41" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X41" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859381</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C44" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D44" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E44" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F44" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G44" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H44" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292598</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T44" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U44" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V44" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W44" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X44" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859205</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859398</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1955950542785808</v>
+        <v>0.1955950542785873</v>
       </c>
       <c r="H8" t="n">
-        <v>2.003137849630517</v>
+        <v>2.003137849630583</v>
       </c>
       <c r="I8" t="n">
-        <v>7.540678330074996</v>
+        <v>7.540678330075244</v>
       </c>
       <c r="J8" t="n">
-        <v>16.60088573807672</v>
+        <v>16.60088573807726</v>
       </c>
       <c r="K8" t="n">
-        <v>24.88042438568905</v>
+        <v>24.88042438568987</v>
       </c>
       <c r="L8" t="n">
-        <v>30.86636652806718</v>
+        <v>30.86636652806819</v>
       </c>
       <c r="M8" t="n">
-        <v>34.34478007459388</v>
+        <v>34.34478007459502</v>
       </c>
       <c r="N8" t="n">
-        <v>34.90051452256291</v>
+        <v>34.90051452256406</v>
       </c>
       <c r="O8" t="n">
-        <v>32.95556620158027</v>
+        <v>32.95556620158136</v>
       </c>
       <c r="P8" t="n">
-        <v>28.1268132990778</v>
+        <v>28.12681329907872</v>
       </c>
       <c r="Q8" t="n">
-        <v>21.12206541772611</v>
+        <v>21.12206541772681</v>
       </c>
       <c r="R8" t="n">
-        <v>12.28654782832692</v>
+        <v>12.28654782832732</v>
       </c>
       <c r="S8" t="n">
-        <v>4.457122299373165</v>
+        <v>4.457122299373313</v>
       </c>
       <c r="T8" t="n">
-        <v>0.8562173501044881</v>
+        <v>0.8562173501045164</v>
       </c>
       <c r="U8" t="n">
-        <v>0.01564760434228647</v>
+        <v>0.01564760434228698</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1046525802208464</v>
+        <v>0.1046525802208499</v>
       </c>
       <c r="H9" t="n">
-        <v>1.010723603711859</v>
+        <v>1.010723603711893</v>
       </c>
       <c r="I9" t="n">
-        <v>3.60316997690195</v>
+        <v>3.603169976902069</v>
       </c>
       <c r="J9" t="n">
-        <v>9.887373818145848</v>
+        <v>9.887373818146175</v>
       </c>
       <c r="K9" t="n">
-        <v>16.89909669294256</v>
+        <v>16.89909669294311</v>
       </c>
       <c r="L9" t="n">
-        <v>22.7229209817237</v>
+        <v>22.72292098172445</v>
       </c>
       <c r="M9" t="n">
-        <v>26.51657701472937</v>
+        <v>26.51657701473025</v>
       </c>
       <c r="N9" t="n">
-        <v>27.21839190577181</v>
+        <v>27.21839190577271</v>
       </c>
       <c r="O9" t="n">
-        <v>24.89951104929937</v>
+        <v>24.89951104930019</v>
       </c>
       <c r="P9" t="n">
-        <v>19.98405279673339</v>
+        <v>19.98405279673405</v>
       </c>
       <c r="Q9" t="n">
-        <v>13.35881006468208</v>
+        <v>13.35881006468252</v>
       </c>
       <c r="R9" t="n">
-        <v>6.497640024589047</v>
+        <v>6.497640024589261</v>
       </c>
       <c r="S9" t="n">
-        <v>1.943875777347738</v>
+        <v>1.943875777347803</v>
       </c>
       <c r="T9" t="n">
-        <v>0.4218233386971835</v>
+        <v>0.4218233386971974</v>
       </c>
       <c r="U9" t="n">
-        <v>0.00688503817242411</v>
+        <v>0.006885038172424337</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.08773720774914216</v>
+        <v>0.08773720774914506</v>
       </c>
       <c r="H10" t="n">
-        <v>0.7800635379878281</v>
+        <v>0.7800635379878539</v>
       </c>
       <c r="I10" t="n">
-        <v>2.638497120310567</v>
+        <v>2.638497120310654</v>
       </c>
       <c r="J10" t="n">
-        <v>6.203020587864351</v>
+        <v>6.203020587864556</v>
       </c>
       <c r="K10" t="n">
-        <v>10.19346831849124</v>
+        <v>10.19346831849158</v>
       </c>
       <c r="L10" t="n">
-        <v>13.04412995935883</v>
+        <v>13.04412995935926</v>
       </c>
       <c r="M10" t="n">
-        <v>13.7532061201678</v>
+        <v>13.75320612016825</v>
       </c>
       <c r="N10" t="n">
-        <v>13.42618561855737</v>
+        <v>13.42618561855782</v>
       </c>
       <c r="O10" t="n">
-        <v>12.40125550985148</v>
+        <v>12.40125550985189</v>
       </c>
       <c r="P10" t="n">
-        <v>10.61141647176897</v>
+        <v>10.61141647176932</v>
       </c>
       <c r="Q10" t="n">
-        <v>7.34679473252135</v>
+        <v>7.346794732521593</v>
       </c>
       <c r="R10" t="n">
-        <v>3.944983904793246</v>
+        <v>3.944983904793376</v>
       </c>
       <c r="S10" t="n">
-        <v>1.529020247773686</v>
+        <v>1.529020247773736</v>
       </c>
       <c r="T10" t="n">
-        <v>0.3748771603826982</v>
+        <v>0.3748771603827106</v>
       </c>
       <c r="U10" t="n">
-        <v>0.004785665877225942</v>
+        <v>0.0047856658772261</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32087,7 +32087,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837928</v>
       </c>
       <c r="O15" t="n">
         <v>557.7086478970249</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I17" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R17" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,37 +32303,37 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H18" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J18" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
@@ -32342,7 +32342,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32391,16 +32391,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L19" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N19" t="n">
         <v>300.7247737883114</v>
@@ -32409,19 +32409,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q19" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S19" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780294</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I20" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R20" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,37 +32540,37 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H21" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J21" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138799</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233488</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -32579,7 +32579,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32628,16 +32628,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L22" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N22" t="n">
         <v>300.7247737883114</v>
@@ -32646,19 +32646,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q22" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S22" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U22" t="n">
         <v>0.1071911508780294</v>
@@ -32792,7 +32792,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138805</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
         <v>593.9283018233474</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I26" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33020,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233481</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33108,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33126,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33260,10 +33260,10 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026445</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353163</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
         <v>508.9565619138795</v>
@@ -33515,10 +33515,10 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33746,7 +33746,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837931</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
         <v>557.7086478970249</v>
@@ -33755,7 +33755,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33980,7 +33980,7 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233481</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
         <v>609.6478166837924</v>
@@ -33992,7 +33992,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34208,7 +34208,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026445</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
@@ -34217,7 +34217,7 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233481</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
         <v>609.6478166837924</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>72.49953281187038</v>
+        <v>72.49953281187042</v>
       </c>
       <c r="K13" t="n">
-        <v>232.9687757431237</v>
+        <v>232.9687757431238</v>
       </c>
       <c r="L13" t="n">
         <v>346.6784883690023</v>
@@ -35577,16 +35577,16 @@
         <v>374.554495592288</v>
       </c>
       <c r="N13" t="n">
-        <v>371.7780623663442</v>
+        <v>371.7780623663443</v>
       </c>
       <c r="O13" t="n">
-        <v>329.2742464214439</v>
+        <v>329.274246421444</v>
       </c>
       <c r="P13" t="n">
         <v>261.8781873439146</v>
       </c>
       <c r="Q13" t="n">
-        <v>105.3153547366978</v>
+        <v>105.3153547366979</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35735,7 +35735,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004595</v>
       </c>
       <c r="O15" t="n">
         <v>415.1124034525805</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>72.49953281187035</v>
+        <v>72.49953281187038</v>
       </c>
       <c r="K16" t="n">
         <v>232.9687757431237</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O17" t="n">
-        <v>508.05300088822</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127279</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K19" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O19" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340057</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013304</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K22" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O22" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687125</v>
+        <v>318.2725855051304</v>
       </c>
       <c r="K23" t="n">
         <v>337.1912865554004</v>
@@ -36364,7 +36364,7 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>878.7216910265503</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
         <v>552.3018354129113</v>
@@ -36376,7 +36376,7 @@
         <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R23" t="n">
         <v>59.61319854222472</v>
@@ -36440,7 +36440,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340064</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
         <v>451.7942679013291</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302265</v>
+        <v>825.9229012776183</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509644</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>272.5441252288672</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013298</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K28" t="n">
-        <v>253.0227961629116</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L28" t="n">
         <v>366.7325087887907</v>
@@ -36762,16 +36762,16 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N28" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O28" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P28" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637021</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564863</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,13 +36829,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L29" t="n">
-        <v>855.7934116805427</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
         <v>538.9211158302265</v>
@@ -36847,13 +36847,13 @@
         <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193716</v>
+        <v>675.9826703737863</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,10 +36908,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597776</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609573</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
         <v>370.4021821340053</v>
@@ -37078,19 +37078,19 @@
         <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
         <v>508.053000888219</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193716</v>
+        <v>675.9826703737872</v>
       </c>
       <c r="Q32" t="n">
-        <v>368.6994750790374</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37163,10 +37163,10 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M34" t="n">
         <v>394.6085160120763</v>
@@ -37303,10 +37303,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554004</v>
+        <v>527.4262975833889</v>
       </c>
       <c r="L35" t="n">
         <v>455.5901143923319</v>
@@ -37315,16 +37315,16 @@
         <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O35" t="n">
         <v>508.053000888219</v>
       </c>
       <c r="P35" t="n">
-        <v>516.6671564946894</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R35" t="n">
         <v>59.61319854222472</v>
@@ -37394,7 +37394,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004598</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
         <v>415.1124034525805</v>
@@ -37403,7 +37403,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,16 +37461,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K37" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M37" t="n">
-        <v>394.6085160120765</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N37" t="n">
         <v>391.8320827861326</v>
@@ -37479,7 +37479,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P37" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q37" t="n">
         <v>125.3693751564862</v>
@@ -37543,10 +37543,10 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L38" t="n">
-        <v>792.4236962072428</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
         <v>538.9211158302265</v>
@@ -37558,10 +37558,10 @@
         <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908542</v>
+        <v>520.9338729746952</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R38" t="n">
         <v>125.3296184152072</v>
@@ -37628,7 +37628,7 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013298</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
         <v>478.3061046004591</v>
@@ -37640,7 +37640,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,19 +37698,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165885</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K40" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M40" t="n">
         <v>394.6085160120763</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861325</v>
       </c>
       <c r="O40" t="n">
         <v>349.3282668412323</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
         <v>337.1912865554004</v>
@@ -37789,16 +37789,16 @@
         <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>889.1354172278221</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
         <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908542</v>
+        <v>675.9826703737863</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R41" t="n">
         <v>125.3296184152072</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597776</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
@@ -37865,7 +37865,7 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013298</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
         <v>478.3061046004591</v>
@@ -37935,13 +37935,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165871</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K43" t="n">
-        <v>253.022796162912</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7325087887919</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M43" t="n">
         <v>394.6085160120763</v>
@@ -37950,13 +37950,13 @@
         <v>391.8320827861326</v>
       </c>
       <c r="O43" t="n">
-        <v>349.3282668412322</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P43" t="n">
         <v>281.9322077637029</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3693751564861</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,28 +38017,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
         <v>455.5901143923319</v>
       </c>
       <c r="M44" t="n">
-        <v>770.0277979463654</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N44" t="n">
         <v>552.3018354129113</v>
       </c>
       <c r="O44" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P44" t="n">
         <v>398.7619862193716</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037194</v>
+        <v>359.5297983552937</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165871</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K46" t="n">
-        <v>253.022796162912</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887901</v>
       </c>
       <c r="M46" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
         <v>391.8320827861326</v>
       </c>
       <c r="O46" t="n">
-        <v>349.3282668412322</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P46" t="n">
-        <v>281.9322077637044</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3693751564861</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
